--- a/assign3/tables/table3.xlsx
+++ b/assign3/tables/table3.xlsx
@@ -1,102 +1,145 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IITH\Probability AI1110\a3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF102864-59E9-4AD2-87E9-7ABEF6AD3D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAC0A6E-2588-4918-AE1B-A17D34585582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+  <si>
+    <t>Intervals</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>(-10)-0</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
   <si>
     <t>0-10</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>10-20</t>
   </si>
   <si>
     <t>20-30</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>30-40</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>40-50</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>50-60</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>60-70</t>
   </si>
   <si>
+    <t>H</t>
+  </si>
+  <si>
     <t>70-80</t>
   </si>
   <si>
+    <t>I</t>
+  </si>
+  <si>
     <t>80-90</t>
   </si>
   <si>
+    <t>J</t>
+  </si>
+  <si>
     <t>90-100</t>
   </si>
   <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>100-110</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>Intervals</t>
-  </si>
-  <si>
-    <t>(-10)-0</t>
-  </si>
-  <si>
-    <t>100-110</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,67 +160,76 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -214,7 +266,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -226,7 +278,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -273,6 +325,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -308,6 +377,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -460,13 +546,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.54296875" customWidth="1"/>
     <col min="2" max="2" width="21.453125" customWidth="1"/>
@@ -474,174 +560,216 @@
     <col min="4" max="4" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3">
-        <v>-5</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B8" s="1">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>85</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1">
+        <v>95</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1">
+        <v>105</v>
+      </c>
+      <c r="C13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>35</v>
-      </c>
-      <c r="C6" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>45</v>
-      </c>
-      <c r="C7" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>55</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>65</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>75</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>85</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>95</v>
-      </c>
-      <c r="C12" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3">
-        <v>105</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3">
+      <c r="D13" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="9">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>11</v>
+      <c r="D14" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A14:B14"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>